--- a/uni_craw_korea_other_country/kr site other country 29-11-2024.xlsx
+++ b/uni_craw_korea_other_country/kr site other country 29-11-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea_other_country/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10488831DE462E5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2841B98C-D176-417D-9F9E-486388312244}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_F25DC773A252ABDACC10488831DE462E5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E602F109-E916-4B44-AE05-EE81820919F9}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="2715" windowWidth="16620" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="2400" windowWidth="16620" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Hoa Kỳ</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -530,7 +533,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -544,7 +547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -557,8 +560,11 @@
       <c r="D3">
         <v>2160</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -572,7 +578,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -585,8 +591,11 @@
       <c r="D5">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -599,8 +608,11 @@
       <c r="D6">
         <v>8310</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -614,7 +626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -628,7 +640,7 @@
         <v>10061</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -642,7 +654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -656,7 +668,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -670,7 +682,7 @@
         <v>15743</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -683,8 +695,11 @@
       <c r="D12">
         <v>74670</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -698,7 +713,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -711,8 +726,11 @@
       <c r="D14">
         <v>86238</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -726,7 +744,7 @@
         <v>740711</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
